--- a/WorkBot/main/backend/ordering/OrderFiles/Peters Supply/Peters Supply_Triphammer_20250704.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/Peters Supply/Peters Supply_Triphammer_20250704.xlsx
@@ -451,189 +451,189 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PS1077913</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bag - Paper (10#)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>61.26</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131003944</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bag - Paper (20# Squat)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.71</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>24.71</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PS 1107767</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bag - Paper (6#)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.71</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1008838</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glove Nitrile - Med</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1008837</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glove Nitrile - Small</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PS 1008839</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Glove Nitrile - XLarge</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26.25</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52.50</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PS 1031121</t>
+          <t>sku</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glove Vinyl - Med</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>cost_per</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>total_cost</t>
         </is>
       </c>
     </row>
